--- a/team_specific_matrix/Liberty_A.xlsx
+++ b/team_specific_matrix/Liberty_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2203389830508475</v>
+        <v>0.2149532710280374</v>
       </c>
       <c r="C2">
-        <v>0.4858757062146893</v>
+        <v>0.4953271028037383</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01694915254237288</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1525423728813559</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1242937853107345</v>
+        <v>0.1261682242990654</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01149425287356322</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05747126436781609</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.632183908045977</v>
+        <v>0.6635514018691588</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2988505747126437</v>
+        <v>0.2803738317757009</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7714285714285715</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0335195530726257</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0223463687150838</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03910614525139665</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4134078212290503</v>
+        <v>0.3961352657004831</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0111731843575419</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1899441340782123</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="R6">
-        <v>0.03910614525139665</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="S6">
-        <v>0.2513966480446927</v>
+        <v>0.2705314009661836</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.109375</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0078125</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0546875</v>
+        <v>0.05960264900662252</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0078125</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1875</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="R7">
-        <v>0.109375</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="S7">
-        <v>0.3984375</v>
+        <v>0.4039735099337748</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05539358600583091</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02332361516034985</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05830903790087463</v>
+        <v>0.06127450980392157</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1078717201166181</v>
+        <v>0.1151960784313725</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01457725947521866</v>
+        <v>0.01225490196078431</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1749271137026239</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R8">
-        <v>0.1574344023323615</v>
+        <v>0.1519607843137255</v>
       </c>
       <c r="S8">
-        <v>0.4081632653061225</v>
+        <v>0.3995098039215687</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06779661016949153</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694915254237288</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06779661016949153</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09322033898305085</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02542372881355932</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2033898305084746</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="R9">
-        <v>0.1525423728813559</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="S9">
-        <v>0.3728813559322034</v>
+        <v>0.3768115942028986</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09186906019007392</v>
+        <v>0.09228039041703638</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02111932418162619</v>
+        <v>0.02218278615794144</v>
       </c>
       <c r="E10">
-        <v>0.001055966209081309</v>
+        <v>0.0008873114463176575</v>
       </c>
       <c r="F10">
-        <v>0.06335797254487856</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1108764519535375</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01689545934530095</v>
+        <v>0.01508429458740018</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1805702217529039</v>
+        <v>0.1925465838509317</v>
       </c>
       <c r="R10">
-        <v>0.1203801478352693</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="S10">
-        <v>0.3938753959873284</v>
+        <v>0.3815439219165927</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1435406698564593</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1148325358851675</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="K11">
-        <v>0.2009569377990431</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="L11">
-        <v>0.5358851674641149</v>
+        <v>0.55</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004784688995215311</v>
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7410714285714286</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1785714285714286</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="K12">
-        <v>0.008928571428571428</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="L12">
-        <v>0.04464285714285714</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02678571428571428</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02976190476190476</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2023809523809524</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="I15">
-        <v>0.04166666666666666</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="J15">
-        <v>0.3928571428571428</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="K15">
-        <v>0.06547619047619048</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01785714285714286</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02380952380952381</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2261904761904762</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04629629629629629</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="I16">
-        <v>0.09259259259259259</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="J16">
-        <v>0.3148148148148148</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="K16">
-        <v>0.1388888888888889</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01851851851851852</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01851851851851852</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1203703703703704</v>
+        <v>0.1395348837209302</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03525641025641026</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1762820512820513</v>
+        <v>0.1916010498687664</v>
       </c>
       <c r="I17">
-        <v>0.0641025641025641</v>
+        <v>0.05774278215223097</v>
       </c>
       <c r="J17">
-        <v>0.4583333333333333</v>
+        <v>0.4514435695538058</v>
       </c>
       <c r="K17">
-        <v>0.1217948717948718</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.003205128205128205</v>
+        <v>0.005249343832020997</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0641025641025641</v>
+        <v>0.06561679790026247</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07692307692307693</v>
+        <v>0.07874015748031496</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05339805825242718</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1553398058252427</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="I18">
-        <v>0.04854368932038835</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="J18">
-        <v>0.4951456310679612</v>
+        <v>0.4879032258064516</v>
       </c>
       <c r="K18">
-        <v>0.1019417475728155</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01456310679611651</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05339805825242718</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07766990291262135</v>
+        <v>0.07661290322580645</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0375</v>
+        <v>0.03288201160541586</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2261363636363636</v>
+        <v>0.2263056092843327</v>
       </c>
       <c r="I19">
-        <v>0.08068181818181819</v>
+        <v>0.08220502901353965</v>
       </c>
       <c r="J19">
-        <v>0.3556818181818182</v>
+        <v>0.3646034816247582</v>
       </c>
       <c r="K19">
-        <v>0.08749999999999999</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02045454545454545</v>
+        <v>0.02030947775628627</v>
       </c>
       <c r="N19">
-        <v>0.002272727272727273</v>
+        <v>0.001934235976789168</v>
       </c>
       <c r="O19">
-        <v>0.08636363636363636</v>
+        <v>0.08123791102514506</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1034090909090909</v>
+        <v>0.1054158607350097</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Liberty_A.xlsx
+++ b/team_specific_matrix/Liberty_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2149532710280374</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="C2">
-        <v>0.4953271028037383</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01869158878504673</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1448598130841121</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1261682242990654</v>
+        <v>0.1284403669724771</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009345794392523364</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04672897196261682</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6635514018691588</v>
+        <v>0.6636363636363637</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2803738317757009</v>
+        <v>0.2818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6976744186046512</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2790697674418605</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03864734299516908</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01932367149758454</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03381642512077294</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3961352657004831</v>
+        <v>0.3824884792626728</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00966183574879227</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1835748792270532</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="R6">
-        <v>0.04830917874396135</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S6">
-        <v>0.2705314009661836</v>
+        <v>0.2672811059907834</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1258278145695364</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01324503311258278</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05960264900662252</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1059602649006623</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006622516556291391</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1788079470198675</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="R7">
-        <v>0.1059602649006623</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S7">
-        <v>0.4039735099337748</v>
+        <v>0.4013157894736842</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05882352941176471</v>
+        <v>0.0585480093676815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02450980392156863</v>
+        <v>0.0234192037470726</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06127450980392157</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1151960784313725</v>
+        <v>0.117096018735363</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01225490196078431</v>
+        <v>0.0117096018735363</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1764705882352941</v>
+        <v>0.1756440281030445</v>
       </c>
       <c r="R8">
-        <v>0.1519607843137255</v>
+        <v>0.1545667447306792</v>
       </c>
       <c r="S8">
-        <v>0.3995098039215687</v>
+        <v>0.3934426229508197</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05797101449275362</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01449275362318841</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07246376811594203</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09420289855072464</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02173913043478261</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2028985507246377</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="R9">
-        <v>0.1594202898550725</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="S9">
-        <v>0.3768115942028986</v>
+        <v>0.3661971830985916</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09228039041703638</v>
+        <v>0.09067579127459367</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02218278615794144</v>
+        <v>0.02309666381522669</v>
       </c>
       <c r="E10">
-        <v>0.0008873114463176575</v>
+        <v>0.000855431993156544</v>
       </c>
       <c r="F10">
-        <v>0.06122448979591837</v>
+        <v>0.0641573994867408</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1118012422360248</v>
+        <v>0.1120615911035073</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01508429458740018</v>
+        <v>0.01454234388366125</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1925465838509317</v>
+        <v>0.1907613344739093</v>
       </c>
       <c r="R10">
-        <v>0.1224489795918367</v>
+        <v>0.1240376390076989</v>
       </c>
       <c r="S10">
-        <v>0.3815439219165927</v>
+        <v>0.3798118049615056</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2941176470588235</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03076923076923077</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1794871794871795</v>
+        <v>0.1881188118811881</v>
       </c>
       <c r="I15">
-        <v>0.04102564102564103</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="J15">
-        <v>0.4153846153846154</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="K15">
-        <v>0.06153846153846154</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03076923076923077</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03589743589743589</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2051282051282051</v>
+        <v>0.202970297029703</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03875968992248062</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2403100775193799</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="I16">
-        <v>0.08527131782945736</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="J16">
-        <v>0.3178294573643411</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="K16">
-        <v>0.1317829457364341</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02325581395348837</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02325581395348837</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1395348837209302</v>
+        <v>0.1353383458646616</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03149606299212598</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1916010498687664</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="I17">
-        <v>0.05774278215223097</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J17">
-        <v>0.4514435695538058</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K17">
-        <v>0.1181102362204724</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005249343832020997</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06561679790026247</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07874015748031496</v>
+        <v>0.08080808080808081</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0564516129032258</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.157258064516129</v>
+        <v>0.1564885496183206</v>
       </c>
       <c r="I18">
-        <v>0.04838709677419355</v>
+        <v>0.04961832061068702</v>
       </c>
       <c r="J18">
-        <v>0.4879032258064516</v>
+        <v>0.4923664122137404</v>
       </c>
       <c r="K18">
-        <v>0.09677419354838709</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01209677419354839</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06451612903225806</v>
+        <v>0.0648854961832061</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07661290322580645</v>
+        <v>0.08015267175572519</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03288201160541586</v>
+        <v>0.03192488262910798</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2263056092843327</v>
+        <v>0.2291079812206573</v>
       </c>
       <c r="I19">
-        <v>0.08220502901353965</v>
+        <v>0.08262910798122065</v>
       </c>
       <c r="J19">
-        <v>0.3646034816247582</v>
+        <v>0.3643192488262911</v>
       </c>
       <c r="K19">
-        <v>0.0851063829787234</v>
+        <v>0.08262910798122065</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02030947775628627</v>
+        <v>0.0215962441314554</v>
       </c>
       <c r="N19">
-        <v>0.001934235976789168</v>
+        <v>0.001877934272300469</v>
       </c>
       <c r="O19">
-        <v>0.08123791102514506</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1054158607350097</v>
+        <v>0.1061032863849765</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Liberty_A.xlsx
+++ b/team_specific_matrix/Liberty_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2110091743119266</v>
+        <v>0.2212765957446808</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.4851063829787234</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01834862385321101</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1422018348623853</v>
+        <v>0.1531914893617021</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1284403669724771</v>
+        <v>0.1234042553191489</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00909090909090909</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04545454545454546</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6636363636363637</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2818181818181818</v>
+        <v>0.2782608695652174</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7111111111111111</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03686635944700461</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0184331797235023</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03225806451612903</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3824884792626728</v>
+        <v>0.3663793103448276</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009216589861751152</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1935483870967742</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="R6">
-        <v>0.05990783410138249</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="S6">
-        <v>0.2672811059907834</v>
+        <v>0.2974137931034483</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.131578947368421</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0131578947368421</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05921052631578947</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1052631578947368</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006578947368421052</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1776315789473684</v>
+        <v>0.1925465838509317</v>
       </c>
       <c r="R7">
-        <v>0.1052631578947368</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="S7">
-        <v>0.4013157894736842</v>
+        <v>0.3975155279503105</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0585480093676815</v>
+        <v>0.05856832971800434</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0234192037470726</v>
+        <v>0.02386117136659436</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06557377049180328</v>
+        <v>0.06941431670281996</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.117096018735363</v>
+        <v>0.1214750542299349</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0117096018735363</v>
+        <v>0.01518438177874186</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1756440281030445</v>
+        <v>0.1670281995661605</v>
       </c>
       <c r="R8">
-        <v>0.1545667447306792</v>
+        <v>0.1540130151843818</v>
       </c>
       <c r="S8">
-        <v>0.3934426229508197</v>
+        <v>0.3904555314533623</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05633802816901409</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01408450704225352</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07042253521126761</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09859154929577464</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02816901408450704</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2112676056338028</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="R9">
-        <v>0.1549295774647887</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="S9">
-        <v>0.3661971830985916</v>
+        <v>0.3860759493670886</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09067579127459367</v>
+        <v>0.09024979854955681</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02309666381522669</v>
+        <v>0.0225624496373892</v>
       </c>
       <c r="E10">
-        <v>0.000855431993156544</v>
+        <v>0.0008058017727639</v>
       </c>
       <c r="F10">
-        <v>0.0641573994867408</v>
+        <v>0.064464141821112</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1120615911035073</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01454234388366125</v>
+        <v>0.016116035455278</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1907613344739093</v>
+        <v>0.1909750201450443</v>
       </c>
       <c r="R10">
-        <v>0.1240376390076989</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="S10">
-        <v>0.3798118049615056</v>
+        <v>0.3819500402900886</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1416666666666667</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1083333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.1958333333333333</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L11">
-        <v>0.55</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004166666666666667</v>
+        <v>0.003968253968253968</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7348484848484849</v>
+        <v>0.7375886524822695</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1893939393939394</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="K12">
-        <v>0.007575757575757576</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="L12">
-        <v>0.03787878787878788</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0303030303030303</v>
+        <v>0.02836879432624113</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0297029702970297</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1881188118811881</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.0396039603960396</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="J15">
-        <v>0.4158415841584158</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.0594059405940594</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0297029702970297</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03465346534653466</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.202970297029703</v>
+        <v>0.2181818181818182</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03759398496240601</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2406015037593985</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="I16">
-        <v>0.08270676691729323</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="J16">
-        <v>0.3233082706766917</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1278195488721804</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02255639097744361</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03007518796992481</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1353383458646616</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1919191919191919</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I17">
-        <v>0.05555555555555555</v>
+        <v>0.05476190476190476</v>
       </c>
       <c r="J17">
-        <v>0.4545454545454545</v>
+        <v>0.4595238095238095</v>
       </c>
       <c r="K17">
-        <v>0.1136363636363636</v>
+        <v>0.1119047619047619</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005050505050505051</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06818181818181818</v>
+        <v>0.07380952380952381</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08080808080808081</v>
+        <v>0.0761904761904762</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05343511450381679</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1564885496183206</v>
+        <v>0.1527272727272727</v>
       </c>
       <c r="I18">
-        <v>0.04961832061068702</v>
+        <v>0.05818181818181818</v>
       </c>
       <c r="J18">
-        <v>0.4923664122137404</v>
+        <v>0.4872727272727272</v>
       </c>
       <c r="K18">
-        <v>0.0916030534351145</v>
+        <v>0.08727272727272728</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01145038167938931</v>
+        <v>0.01090909090909091</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0648854961832061</v>
+        <v>0.06909090909090909</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08015267175572519</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03192488262910798</v>
+        <v>0.03025064822817632</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2291079812206573</v>
+        <v>0.22990492653414</v>
       </c>
       <c r="I19">
-        <v>0.08262910798122065</v>
+        <v>0.08556611927398444</v>
       </c>
       <c r="J19">
-        <v>0.3643192488262911</v>
+        <v>0.3621434745030251</v>
       </c>
       <c r="K19">
-        <v>0.08262910798122065</v>
+        <v>0.08297320656871218</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0215962441314554</v>
+        <v>0.01987899740708729</v>
       </c>
       <c r="N19">
-        <v>0.001877934272300469</v>
+        <v>0.001728608470181504</v>
       </c>
       <c r="O19">
-        <v>0.07981220657276995</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1061032863849765</v>
+        <v>0.1106309420916163</v>
       </c>
     </row>
   </sheetData>
